--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -414,14 +414,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>616</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chị duyên</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>617</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cô tú</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -557,7 +776,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +786,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +796,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
     <row r="15">
@@ -587,7 +806,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +986,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1741428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +1002,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1741428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,43 +776,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70000</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>571428.5714285715</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -822,7 +822,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,7 +832,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -842,7 +842,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -852,7 +852,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -862,7 +862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -872,7 +872,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -882,27 +882,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -912,7 +912,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -922,7 +922,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -932,7 +932,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -942,7 +942,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -952,7 +952,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -962,7 +962,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -972,41 +972,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1957142.857142857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1741428.571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1741428.571428571</v>
+        <v>1957142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>857142.8571428573</v>
+        <v>2428571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6000000</v>
       </c>
     </row>
     <row r="21">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1957142.857142857</v>
+        <v>-2471428.571428571</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1957142.857142857</v>
+        <v>-2471428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,35 +609,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>641</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Thanh nhã</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1100000</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1750000</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +832,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +842,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2428571.428571429</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="14">
@@ -796,7 +852,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1100000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="15">
@@ -976,7 +1032,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2471428.571428571</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +1052,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2471428.571428571</v>
+        <v>-1250000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,34 +665,90 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>672</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ngọc diễm</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1750000</v>
       </c>
     </row>
@@ -832,7 +888,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +898,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3000000</v>
+        <v>6142857.142857144</v>
       </c>
     </row>
     <row r="14">
@@ -912,7 +968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6000000</v>
+        <v>-9000000</v>
       </c>
     </row>
     <row r="21">
@@ -1032,7 +1088,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1108,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="13">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6142857.142857144</v>
+        <v>6714285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
     <row r="33">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,35 +721,147 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>688</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C.hạnh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>689</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cầm dương</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>39500000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>3000000</v>
       </c>
-      <c r="K6" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>19000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1750000</v>
+      <c r="K8" t="n">
+        <v>42500000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26500000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2600000</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +1000,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13">
@@ -898,7 +1010,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6714285.714285715</v>
+        <v>7000000.000000001</v>
       </c>
     </row>
     <row r="14">
@@ -908,7 +1020,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1750000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1200,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="33">
@@ -1108,7 +1220,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7000000.000000001</v>
+        <v>7285714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>600000</v>
+        <v>885714.2857142873</v>
       </c>
     </row>
     <row r="33">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600000</v>
+        <v>885714.2857142873</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="13">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7285714.285714286</v>
+        <v>7857142.857142858</v>
       </c>
     </row>
     <row r="14">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9000000</v>
+        <v>-18193000</v>
       </c>
     </row>
     <row r="21">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>885714.2857142873</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
     <row r="33">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>885714.2857142873</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 8-2024.xlsx
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="13">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7857142.857142858</v>
+        <v>8142857.142857144</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7735857.142857142</v>
+        <v>-7450142.857142856</v>
       </c>
     </row>
     <row r="33">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7735857.142857142</v>
+        <v>-7450142.857142856</v>
       </c>
     </row>
   </sheetData>
